--- a/application/config/xlsx_config/IMMO_ES_CONFIG.xlsx
+++ b/application/config/xlsx_config/IMMO_ES_CONFIG.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="202">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -52,499 +52,514 @@
     <t xml:space="preserve">type of charts desired</t>
   </si>
   <si>
+    <t xml:space="preserve">expect_column_values_to_not_be_null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACHAT_LOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'mostly': 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"keyword": "FILE_CHECK"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_in_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'value_set' : [1,2], 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRESSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_ADRESSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_match_regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex': '^[0-9]{5}$', 'mostly': 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_NOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_phone_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_TEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'country': 'ES', 'mostly': 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_VILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNONCE_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNONCE_LINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'mostly': 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_value_lengths_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNONCE_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value': 0, 'max_value':255, 'mostly': 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_returning_row_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_CLIENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_of_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'type_' : 'int', 'mostly' : 0.95}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_TOTALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAISON_APT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value' : 0, 'max_value' : 100, 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINI_SITE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYS_AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex': '[A-Z]{2}', 'mostly': 0.99}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_in_type_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'type_list' : ['int','float'], 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIECE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO_IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'value_set' : ['N','Y'], 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELLER_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex': '[A-Za-z]+', 'mostly': 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURFACE_TERRAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex': '[A-Za-z ]+', 'mostly': 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_returning_row_unique_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_returning_row_count_on_conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'column_A':'PRO_IND', 'column_B': 'PRO_IND_2', 'condition_A':['N'],'meta':{'usage':'PRIVATE_LISTINGS'}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'column_A':'PRO_IND', 'column_B': 'PRO_IND_2', 'condition_A':['Y'],'meta':{'usage':'DEALER_LISTINGS'}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of charts desired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Shape</t>
+  </si>
+  <si>
     <t xml:space="preserve">expect_column_to_exist</t>
   </si>
   <si>
-    <t xml:space="preserve">ACHAT_LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"keyword": "FILE_CHECK"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_not_be_null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'mostly': 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_in_set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'value_set' : [1,2], 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRESSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_ADRESSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_of_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'type_' : 'int', 'mostly' : 0.95}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_match_regex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'regex': '[0-9]+', 'mostly': 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_NOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_phone_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_TEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'country': 'ES', 'mostly': 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_VILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNONCE_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_returning_row_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNONCE_LINK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'mostly': 1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPARTEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_CLIENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_TOTALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAISON_APT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'min_value' : 0, 'max_value' : 100, 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINI_SITE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_in_type_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'type_list' : ['int','float'], 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAYS_AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'regex': '[A-Z]{2}', 'mostly': 0.99}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIECE</t>
+    <t xml:space="preserve">check if column exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_table_columns_to_match_ordered_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">column_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'column_list': ['ANNONCE_LINK',...,'TELEPHONE3']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if order of columns is fixed (column titles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone/Garage ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_table_row_count_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_value (default = 0), max_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value' : 15000, 'max_value' : 22000, 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if number of Ads falls between a fixed range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_table_row_count_to_equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'value' : 15000}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if number of Ads is exactly equal to a given number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing values, unique values, &amp; types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whether all column values are unique (when mostly=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_not_to_be_null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if all column values are not empty/blank/null/nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if all column values are  empty/blank/null/nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'type_' : 'string', 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the type of values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"type_" could be 'null', 'boolean', 'int', 'long', 'float', 'double', 'bytes', 'string'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'type_list' : ['boolean','null'], 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the type of values is one of the given list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets and Ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'value_set' : ['Y','N',''], 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if the values of column is one of the given list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_value, max_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value' : 0, 'max_value' : 1000000, 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if values fall into given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_increasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'strictly' : True, 'parse_strings_as_datetimes' : False}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if values are increasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_decreasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if values are decreasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_length_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value' : 8, 'max_value' : 10, 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if the length of all values falls in given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only work for string (text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_length_to_equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'value' : 10, 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if the length of all values is as given number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex': 'https?://(?:[-\\w.]|(?:%[\\da-fA-F]{2}))+', 'mostly': 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if column values match a given regular expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_not_match_regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex': '\w+@\w+', 'mostly': 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if column values don't match a given regular expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_match_regex_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regex_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex_list' : ['expression1','expression2'] , 'mostly' : 0.9, 'match_on'= 'any']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if column values match a given list of regular expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_not_match_regex_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if column values don't match a given list of regular expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datetime &amp; JSON parsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_match_strftime_format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strftime_format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'strftime_format' : '%b %d %Y %H:%M:%S', 'mostly' : 0.95}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if column entries represent a date or time at given format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_dateutil_parseable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of scope for now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_json_parseable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_match_json_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregate functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_mean_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value' : 5000, 'max_value' : 10000}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if mean of column's entries falls between given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_median_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if median of column's entries falls between given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_stdev_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value' : 50, 'max_value' : 100}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if standard deviation of column's entries falls between given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_unique_value_count_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value' : 9500, 'max_value' : 10000}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if number of unique values of column falls between given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_proportion_of_unique_values_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value' : 0.7, 'max_value' : 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if % of unique values of column falls between given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_value &amp; max_value take value between 0.0 and 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_most_common_value_to_be_in_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'value_set' : ['Y','N'], 'ties_okay' : True}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect most common values are in given set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ties_okay = True meaning that if values outside the set are common (but not more common than given values in set) =&gt; still succeed</t>
   </si>
   <si>
     <t xml:space="preserve">expect_column_max_to_be_between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'min_value' : 0, 'max_value' : 400000000}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'type_list' :[ 'int','float'], 'mostly' : 0.95}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRO_IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'value_set' : ['N','Y'], 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELLER_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'regex': '[A-Za-z]+', 'mostly': 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SURFACE_TERRAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'regex': '[A-Za-z ]+', 'mostly': 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of charts desired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if column exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_table_columns_to_match_ordered_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'column_list': ['ANNONCE_LINK',...,'TELEPHONE3']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if order of columns is fixed (column titles)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone/Garage ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_table_row_count_to_be_between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_value (default = 0), max_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'min_value' : 15000, 'max_value' : 22000, 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if number of Ads falls between a fixed range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_table_row_count_to_equal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'value' : 15000}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if number of Ads is exactly equal to a given number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing values, unique values, &amp; types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whether all column values are unique (when mostly=1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_not_to_be_null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if all column values are not empty/blank/null/nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if all column values are  empty/blank/null/nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'type_' : 'string', 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check the type of values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"type_" could be 'null', 'boolean', 'int', 'long', 'float', 'double', 'bytes', 'string'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'type_list' : ['boolean','null'], 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check the type of values is one of the given list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets and Ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value_set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'value_set' : ['Y','N',''], 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if the values of column is one of the given list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_value, max_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'min_value' : 0, 'max_value' : 1000000, 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if values fall into given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_increasing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'strictly' : True, 'parse_strings_as_datetimes' : False}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if values are increasing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_decreasing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if values are decreasing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String matching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_length_to_be_between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'min_value' : 8, 'max_value' : 10, 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if the length of all values falls in given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only work for string (text)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_length_to_equal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'value' : 10, 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if the length of all values is as given number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'regex': 'https?://(?:[-\\w.]|(?:%[\\da-fA-F]{2}))+', 'mostly': 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if column values match a given regular expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_not_match_regex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'regex': '\w+@\w+', 'mostly': 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if column values don't match a given regular expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_match_regex_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regex_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'regex_list' : ['expression1','expression2'] , 'mostly' : 0.9, 'match_on'= 'any']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if column values match a given list of regular expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_not_match_regex_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if column values don't match a given list of regular expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datetime &amp; JSON parsing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_match_strftime_format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strftime_format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'strftime_format' : '%b %d %Y %H:%M:%S', 'mostly' : 0.95}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if column entries represent a date or time at given format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_dateutil_parseable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out of scope for now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_json_parseable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_match_json_schema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggregate functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_mean_to_be_between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'min_value' : 5000, 'max_value' : 10000}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if mean of column's entries falls between given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_median_to_be_between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if median of column's entries falls between given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_stdev_to_be_between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'min_value' : 50, 'max_value' : 100}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if standard deviation of column's entries falls between given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_unique_value_count_to_be_between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'min_value' : 9500, 'max_value' : 10000}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if number of unique values of column falls between given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_proportion_of_unique_values_to_be_between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'min_value' : 0.7, 'max_value' : 1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if % of unique values of column falls between given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_value &amp; max_value take value between 0.0 and 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_most_common_value_to_be_in_set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'value_set' : ['Y','N'], 'ties_okay' : True}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect most common values are in given set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ties_okay = True meaning that if values outside the set are common (but not more common than given values in set) =&gt; still succeed</t>
   </si>
   <si>
     <t xml:space="preserve">{'min_value' : '012017', 'max_value' :  '122018', 'parse_string_as_datetimes' : True, 'output_strftime_format': '%m%Y'}</t>
@@ -677,16 +692,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFA6A6A6"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -818,12 +833,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -995,13 +1010,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.85"/>
@@ -1012,7 +1027,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,896 +1047,784 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="B10" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="C10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="B15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="C20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>16</v>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B41" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:F15 E16:E19" type="list">
-      <formula1>'[immo_fr.vacances_config.xlsx]glossary of expectations'!#ref!</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E14 E18:E19 E21" type="list">
+      <formula1>#ref!!$ab$2:$ab$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E22:F31 E32:E35" type="list">
-      <formula1>'d:\19.etl_project\qc_check\config files\[immo_fr.bucom_config.xlsx]glossary of expectations'!#ref!</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F6 F8:F14" type="list">
+      <formula1>#ref!!$ac$2:$ac$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1966,34 +1869,34 @@
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC1" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,26 +1904,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AC2" s="20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,25 +1932,25 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,25 +1959,25 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AC4" s="20" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,25 +1986,25 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC5" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2109,23 +2012,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AC6" s="20"/>
     </row>
@@ -2135,19 +2038,19 @@
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB7" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="AC7" s="20"/>
     </row>
@@ -2157,16 +2060,16 @@
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="20"/>
@@ -2177,22 +2080,22 @@
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="20"/>
@@ -2203,19 +2106,19 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="20"/>
@@ -2225,22 +2128,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB11" s="21"/>
       <c r="AC11" s="23"/>
@@ -2251,19 +2154,19 @@
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,16 +2175,16 @@
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,17 +2193,17 @@
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="21" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2308,25 +2211,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,22 +2238,22 @@
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,22 +2262,22 @@
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,22 +2286,22 @@
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,22 +2310,22 @@
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,22 +2334,22 @@
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2454,25 +2357,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,10 +2384,10 @@
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,10 +2396,10 @@
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,13 +2408,13 @@
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2519,22 +2422,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,19 +2446,19 @@
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,19 +2467,19 @@
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,19 +2488,19 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,22 +2509,22 @@
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,22 +2533,22 @@
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,22 +2557,22 @@
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="6" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,22 +2581,22 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,19 +2605,19 @@
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,16 +2625,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,10 +2643,10 @@
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,13 +2655,13 @@
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="21" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2766,16 +2669,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,10 +2687,10 @@
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,10 +2699,10 @@
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,13 +2711,13 @@
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,22 +2725,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,19 +2749,19 @@
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,16 +2770,16 @@
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2948,100 +2851,100 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -3113,94 +3016,94 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -3272,100 +3175,100 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -3436,85 +3339,85 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -3585,94 +3488,94 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E22" type="list">
+      <formula1>'Glossary of Expectations'!$AB$2:$AB$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F22" type="list">
       <formula1>'Glossary of Expectations'!$AC$2:$AC$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E22" type="list">
-      <formula1>'Glossary of Expectations'!$AB$2:$AB$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A20:A22" type="list">
@@ -3735,100 +3638,100 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -3899,98 +3802,98 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A20:A22" type="list">
+      <formula1>'Glossary of Expectations'!$C$2:$C$70</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F22" type="list">
       <formula1>'Glossary of Expectations'!$AC$2:$AC$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E22" type="list">
       <formula1>'Glossary of Expectations'!$AB$2:$AB$11</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A20:A22" type="list">
-      <formula1>'Glossary of Expectations'!$C$2:$C$70</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -4048,98 +3951,98 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A20:A22" type="list">
+      <formula1>'Glossary of Expectations'!$C$2:$C$70</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F22" type="list">
       <formula1>'Glossary of Expectations'!$AC$2:$AC$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E22" type="list">
       <formula1>'Glossary of Expectations'!$AB$2:$AB$11</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A20:A22" type="list">
-      <formula1>'Glossary of Expectations'!$C$2:$C$70</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
